--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-desired-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="127">
   <si>
     <t>anchor score</t>
   </si>
@@ -106,64 +106,64 @@
     <t>fears</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>positive</t>
   </si>
   <si>
     <t>heroes</t>
@@ -760,10 +760,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3">
         <v>0.9230769230769231</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4">
         <v>0.8976377952755905</v>
@@ -942,7 +942,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5">
         <v>0.896551724137931</v>
@@ -992,7 +992,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6">
         <v>0.8807339449541285</v>
@@ -1042,7 +1042,7 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7">
         <v>0.85</v>
@@ -1092,7 +1092,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8">
         <v>0.8368794326241135</v>
@@ -1142,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <v>0.8141025641025641</v>
@@ -1192,7 +1192,7 @@
         <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10">
         <v>0.8080808080808081</v>
@@ -1242,7 +1242,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>0.7925531914893617</v>
@@ -1292,16 +1292,16 @@
         <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.7709251101321586</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L12">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="M12">
-        <v>187</v>
+        <v>72</v>
       </c>
       <c r="N12">
         <v>0.9399999999999999</v>
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1342,28 +1342,28 @@
         <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.7555555555555555</v>
+        <v>0.7322175732217573</v>
       </c>
       <c r="L13">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="M13">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="N13">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1392,7 +1392,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>0.7058823529411765</v>
@@ -1442,28 +1442,28 @@
         <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.7024539877300614</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L15">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1495,25 +1495,25 @@
         <v>46</v>
       </c>
       <c r="K16">
-        <v>0.696969696969697</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L16">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="N16">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="O16">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1545,25 +1545,25 @@
         <v>47</v>
       </c>
       <c r="K17">
-        <v>0.6888888888888889</v>
+        <v>0.6866197183098591</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>206</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1595,25 +1595,25 @@
         <v>48</v>
       </c>
       <c r="K18">
-        <v>0.6866197183098591</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L18">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="N18">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O18">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>89</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1645,25 +1645,25 @@
         <v>49</v>
       </c>
       <c r="K19">
-        <v>0.6842105263157895</v>
+        <v>0.6735294117647059</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="N19">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1921,25 +1921,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1261261261261261</v>
+        <v>0.01270849880857824</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>243</v>
+        <v>621</v>
       </c>
       <c r="E25">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F25">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>97</v>
+        <v>2486</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>55</v>
@@ -1971,25 +1971,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01270849880857824</v>
+        <v>0.01049562682215744</v>
       </c>
       <c r="C26">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>621</v>
+        <v>446</v>
       </c>
       <c r="E26">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F26">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>2486</v>
+        <v>1697</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>56</v>
@@ -2017,30 +2017,6 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.01049562682215744</v>
-      </c>
-      <c r="C27">
-        <v>18</v>
-      </c>
-      <c r="D27">
-        <v>446</v>
-      </c>
-      <c r="E27">
-        <v>0.96</v>
-      </c>
-      <c r="F27">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1697</v>
-      </c>
       <c r="J27" s="1" t="s">
         <v>57</v>
       </c>
@@ -3342,7 +3318,7 @@
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K77">
         <v>0.2014117647058823</v>
@@ -3394,7 +3370,7 @@
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K79">
         <v>0.1915447154471545</v>
